--- a/Debenhams - Feb 2024 - Leather Jackets.xlsx
+++ b/Debenhams - Feb 2024 - Leather Jackets.xlsx
@@ -446,7 +446,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I47"/>
+  <dimension ref="A1:I68"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -457,22 +457,22 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>customs_description</t>
+          <t>Category</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>model</t>
+          <t>Model</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>colour</t>
+          <t>Colour</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>attribute_summary</t>
+          <t>Size</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
@@ -519,7 +519,7 @@
       </c>
       <c r="D2" s="1" t="inlineStr">
         <is>
-          <t>Size: 14</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E2" t="n">
@@ -544,7 +544,7 @@
       <c r="C3" s="1" t="n"/>
       <c r="D3" s="1" t="inlineStr">
         <is>
-          <t>Size: 16</t>
+          <t>16</t>
         </is>
       </c>
       <c r="E3" t="n">
@@ -569,7 +569,7 @@
       <c r="C4" s="1" t="n"/>
       <c r="D4" s="1" t="inlineStr">
         <is>
-          <t>Size: 18</t>
+          <t>18</t>
         </is>
       </c>
       <c r="E4" t="n">
@@ -598,7 +598,7 @@
       </c>
       <c r="D5" s="1" t="inlineStr">
         <is>
-          <t>Size: 10</t>
+          <t>10</t>
         </is>
       </c>
       <c r="E5" t="n">
@@ -623,7 +623,7 @@
       <c r="C6" s="1" t="n"/>
       <c r="D6" s="1" t="inlineStr">
         <is>
-          <t>Size: 12</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E6" t="n">
@@ -644,44 +644,44 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="n"/>
-      <c r="B7" s="1" t="inlineStr">
-        <is>
-          <t>AWL-281</t>
-        </is>
-      </c>
+      <c r="B7" s="1" t="n"/>
       <c r="C7" s="1" t="inlineStr">
         <is>
-          <t>Black</t>
-        </is>
-      </c>
-      <c r="D7" s="1" t="inlineStr">
-        <is>
-          <t>Size: 14</t>
-        </is>
-      </c>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="D7" s="1" t="inlineStr"/>
       <c r="E7" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="F7" t="n">
-        <v>152</v>
+        <v>621</v>
       </c>
       <c r="G7" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H7" t="n">
-        <v>152</v>
+        <v>414</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>207</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n"/>
-      <c r="B8" s="1" t="n"/>
-      <c r="C8" s="1" t="n"/>
+      <c r="B8" s="1" t="inlineStr">
+        <is>
+          <t>AWL-281</t>
+        </is>
+      </c>
+      <c r="C8" s="1" t="inlineStr">
+        <is>
+          <t>Black</t>
+        </is>
+      </c>
       <c r="D8" s="1" t="inlineStr">
         <is>
-          <t>Size: 18</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E8" t="n">
@@ -703,30 +703,26 @@
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="1" t="n"/>
-      <c r="C9" s="1" t="inlineStr">
-        <is>
-          <t>Burgandy</t>
-        </is>
-      </c>
+      <c r="C9" s="1" t="n"/>
       <c r="D9" s="1" t="inlineStr">
         <is>
-          <t>Size: 22</t>
+          <t>18</t>
         </is>
       </c>
       <c r="E9" t="n">
         <v>1</v>
       </c>
       <c r="F9" t="n">
-        <v>174</v>
+        <v>152</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>152</v>
       </c>
       <c r="I9" t="n">
-        <v>174</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -734,28 +730,28 @@
       <c r="B10" s="1" t="n"/>
       <c r="C10" s="1" t="inlineStr">
         <is>
-          <t>Grey</t>
+          <t>Burgandy</t>
         </is>
       </c>
       <c r="D10" s="1" t="inlineStr">
         <is>
-          <t>Size: 12</t>
+          <t>22</t>
         </is>
       </c>
       <c r="E10" t="n">
         <v>1</v>
       </c>
       <c r="F10" t="n">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="G10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>169</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>174</v>
       </c>
     </row>
     <row r="11">
@@ -763,12 +759,12 @@
       <c r="B11" s="1" t="n"/>
       <c r="C11" s="1" t="inlineStr">
         <is>
-          <t>Navy</t>
+          <t>Grey</t>
         </is>
       </c>
       <c r="D11" s="1" t="inlineStr">
         <is>
-          <t>Size: 12</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E11" t="n">
@@ -790,10 +786,14 @@
     <row r="12">
       <c r="A12" s="1" t="n"/>
       <c r="B12" s="1" t="n"/>
-      <c r="C12" s="1" t="n"/>
+      <c r="C12" s="1" t="inlineStr">
+        <is>
+          <t>Navy</t>
+        </is>
+      </c>
       <c r="D12" s="1" t="inlineStr">
         <is>
-          <t>Size: 14</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E12" t="n">
@@ -818,69 +818,61 @@
       <c r="C13" s="1" t="n"/>
       <c r="D13" s="1" t="inlineStr">
         <is>
-          <t>Size: 22</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E13" t="n">
         <v>1</v>
       </c>
       <c r="F13" t="n">
-        <v>193</v>
+        <v>169</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>169</v>
       </c>
       <c r="I13" t="n">
-        <v>193</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n"/>
       <c r="B14" s="1" t="n"/>
-      <c r="C14" s="1" t="inlineStr">
-        <is>
-          <t>Tan</t>
-        </is>
-      </c>
+      <c r="C14" s="1" t="n"/>
       <c r="D14" s="1" t="inlineStr">
         <is>
-          <t>Size: 12</t>
+          <t>22</t>
         </is>
       </c>
       <c r="E14" t="n">
         <v>1</v>
       </c>
       <c r="F14" t="n">
-        <v>169</v>
+        <v>193</v>
       </c>
       <c r="G14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>169</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>193</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
-      <c r="B15" s="1" t="inlineStr">
-        <is>
-          <t>MB139</t>
-        </is>
-      </c>
+      <c r="B15" s="1" t="n"/>
       <c r="C15" s="1" t="inlineStr">
         <is>
-          <t>Black</t>
+          <t>Tan</t>
         </is>
       </c>
       <c r="D15" s="1" t="inlineStr">
         <is>
-          <t>Size: 10</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E15" t="n">
@@ -902,55 +894,59 @@
     <row r="16">
       <c r="A16" s="1" t="n"/>
       <c r="B16" s="1" t="n"/>
-      <c r="C16" s="1" t="n"/>
-      <c r="D16" s="1" t="inlineStr">
-        <is>
-          <t>Size: 12</t>
-        </is>
-      </c>
+      <c r="C16" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="D16" s="1" t="inlineStr"/>
       <c r="E16" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F16" t="n">
-        <v>152</v>
+        <v>1354</v>
       </c>
       <c r="G16" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H16" t="n">
-        <v>152</v>
+        <v>985</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>368</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n"/>
-      <c r="B17" s="1" t="n"/>
+      <c r="B17" s="1" t="inlineStr">
+        <is>
+          <t>MB139</t>
+        </is>
+      </c>
       <c r="C17" s="1" t="inlineStr">
         <is>
-          <t>Burgundy</t>
+          <t>Black</t>
         </is>
       </c>
       <c r="D17" s="1" t="inlineStr">
         <is>
-          <t>Size: 12</t>
+          <t>10</t>
         </is>
       </c>
       <c r="E17" t="n">
         <v>1</v>
       </c>
       <c r="F17" t="n">
-        <v>152</v>
+        <v>169</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>169</v>
       </c>
       <c r="I17" t="n">
-        <v>152</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -959,7 +955,7 @@
       <c r="C18" s="1" t="n"/>
       <c r="D18" s="1" t="inlineStr">
         <is>
-          <t>Size: 16</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E18" t="n">
@@ -969,13 +965,13 @@
         <v>152</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>152</v>
       </c>
       <c r="I18" t="n">
-        <v>152</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -983,37 +979,41 @@
       <c r="B19" s="1" t="n"/>
       <c r="C19" s="1" t="inlineStr">
         <is>
-          <t>Red</t>
+          <t>Tan</t>
         </is>
       </c>
       <c r="D19" s="1" t="inlineStr">
         <is>
-          <t>Size: 10</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E19" t="n">
         <v>1</v>
       </c>
       <c r="F19" t="n">
-        <v>169</v>
+        <v>152</v>
       </c>
       <c r="G19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>169</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>152</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n"/>
       <c r="B20" s="1" t="n"/>
-      <c r="C20" s="1" t="n"/>
+      <c r="C20" s="1" t="inlineStr">
+        <is>
+          <t>Burgundy</t>
+        </is>
+      </c>
       <c r="D20" s="1" t="inlineStr">
         <is>
-          <t>Size: 12</t>
+          <t>16</t>
         </is>
       </c>
       <c r="E20" t="n">
@@ -1023,13 +1023,13 @@
         <v>152</v>
       </c>
       <c r="G20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
         <v>152</v>
-      </c>
-      <c r="I20" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -1038,23 +1038,23 @@
       <c r="C21" s="1" t="n"/>
       <c r="D21" s="1" t="inlineStr">
         <is>
-          <t>Size: 8</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F21" t="n">
-        <v>339</v>
+        <v>152</v>
       </c>
       <c r="G21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>169</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>169</v>
+        <v>152</v>
       </c>
     </row>
     <row r="22">
@@ -1062,58 +1062,50 @@
       <c r="B22" s="1" t="n"/>
       <c r="C22" s="1" t="inlineStr">
         <is>
-          <t>Tan</t>
+          <t>Red</t>
         </is>
       </c>
       <c r="D22" s="1" t="inlineStr">
         <is>
-          <t>Size: 12</t>
+          <t>10</t>
         </is>
       </c>
       <c r="E22" t="n">
         <v>1</v>
       </c>
       <c r="F22" t="n">
-        <v>152</v>
+        <v>169</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>169</v>
       </c>
       <c r="I22" t="n">
-        <v>152</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n"/>
-      <c r="B23" s="1" t="inlineStr">
-        <is>
-          <t>awl-1201</t>
-        </is>
-      </c>
-      <c r="C23" s="1" t="inlineStr">
-        <is>
-          <t>Black</t>
-        </is>
-      </c>
+      <c r="B23" s="1" t="n"/>
+      <c r="C23" s="1" t="n"/>
       <c r="D23" s="1" t="inlineStr">
         <is>
-          <t>Size: 10</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E23" t="n">
         <v>1</v>
       </c>
       <c r="F23" t="n">
-        <v>129</v>
+        <v>152</v>
       </c>
       <c r="G23" t="n">
         <v>1</v>
       </c>
       <c r="H23" t="n">
-        <v>129</v>
+        <v>152</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -1122,102 +1114,110 @@
     <row r="24">
       <c r="A24" s="1" t="n"/>
       <c r="B24" s="1" t="n"/>
-      <c r="C24" s="1" t="inlineStr">
-        <is>
-          <t>Blue</t>
-        </is>
-      </c>
+      <c r="C24" s="1" t="n"/>
       <c r="D24" s="1" t="inlineStr">
         <is>
-          <t>Size: 12</t>
+          <t>8</t>
         </is>
       </c>
       <c r="E24" t="n">
         <v>2</v>
       </c>
       <c r="F24" t="n">
-        <v>258</v>
+        <v>339</v>
       </c>
       <c r="G24" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H24" t="n">
-        <v>258</v>
+        <v>169</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>169</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n"/>
       <c r="B25" s="1" t="n"/>
-      <c r="C25" s="1" t="n"/>
-      <c r="D25" s="1" t="inlineStr">
-        <is>
-          <t>Size: 14</t>
-        </is>
-      </c>
+      <c r="C25" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="D25" s="1" t="inlineStr"/>
       <c r="E25" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="F25" t="n">
-        <v>99</v>
+        <v>1444</v>
       </c>
       <c r="G25" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H25" t="n">
-        <v>99</v>
+        <v>815</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>628</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n"/>
-      <c r="B26" s="1" t="n"/>
-      <c r="C26" s="1" t="n"/>
+      <c r="B26" s="1" t="inlineStr">
+        <is>
+          <t>awl-1201</t>
+        </is>
+      </c>
+      <c r="C26" s="1" t="inlineStr">
+        <is>
+          <t>Black</t>
+        </is>
+      </c>
       <c r="D26" s="1" t="inlineStr">
         <is>
-          <t>Size: 18</t>
+          <t>10</t>
         </is>
       </c>
       <c r="E26" t="n">
         <v>1</v>
       </c>
       <c r="F26" t="n">
-        <v>116</v>
+        <v>129</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>129</v>
       </c>
       <c r="I26" t="n">
-        <v>116</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n"/>
       <c r="B27" s="1" t="n"/>
-      <c r="C27" s="1" t="n"/>
+      <c r="C27" s="1" t="inlineStr">
+        <is>
+          <t>Blue</t>
+        </is>
+      </c>
       <c r="D27" s="1" t="inlineStr">
         <is>
-          <t>Size: 22</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E27" t="n">
         <v>1</v>
       </c>
       <c r="F27" t="n">
-        <v>129</v>
+        <v>99</v>
       </c>
       <c r="G27" t="n">
         <v>1</v>
       </c>
       <c r="H27" t="n">
-        <v>129</v>
+        <v>99</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -1225,35 +1225,27 @@
     </row>
     <row r="28">
       <c r="A28" s="1" t="n"/>
-      <c r="B28" s="1" t="inlineStr">
-        <is>
-          <t>awl-284</t>
-        </is>
-      </c>
-      <c r="C28" s="1" t="inlineStr">
-        <is>
-          <t>Navy</t>
-        </is>
-      </c>
+      <c r="B28" s="1" t="n"/>
+      <c r="C28" s="1" t="n"/>
       <c r="D28" s="1" t="inlineStr">
         <is>
-          <t>Size: 12</t>
+          <t>18</t>
         </is>
       </c>
       <c r="E28" t="n">
         <v>1</v>
       </c>
       <c r="F28" t="n">
-        <v>134</v>
+        <v>116</v>
       </c>
       <c r="G28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>134</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>116</v>
       </c>
     </row>
     <row r="29">
@@ -1262,20 +1254,20 @@
       <c r="C29" s="1" t="n"/>
       <c r="D29" s="1" t="inlineStr">
         <is>
-          <t>Size: 14</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F29" t="n">
-        <v>134</v>
+        <v>258</v>
       </c>
       <c r="G29" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H29" t="n">
-        <v>134</v>
+        <v>258</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -1284,27 +1276,23 @@
     <row r="30">
       <c r="A30" s="1" t="n"/>
       <c r="B30" s="1" t="n"/>
-      <c r="C30" s="1" t="inlineStr">
-        <is>
-          <t>Oxblood</t>
-        </is>
-      </c>
+      <c r="C30" s="1" t="n"/>
       <c r="D30" s="1" t="inlineStr">
         <is>
-          <t>Size: 14</t>
+          <t>22</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F30" t="n">
-        <v>283</v>
+        <v>129</v>
       </c>
       <c r="G30" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H30" t="n">
-        <v>283</v>
+        <v>129</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -1315,37 +1303,41 @@
       <c r="B31" s="1" t="n"/>
       <c r="C31" s="1" t="inlineStr">
         <is>
-          <t>Tan</t>
-        </is>
-      </c>
-      <c r="D31" s="1" t="inlineStr">
-        <is>
-          <t>Size: 12</t>
-        </is>
-      </c>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="D31" s="1" t="inlineStr"/>
       <c r="E31" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F31" t="n">
-        <v>134</v>
+        <v>731</v>
       </c>
       <c r="G31" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H31" t="n">
-        <v>134</v>
+        <v>615</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>116</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n"/>
-      <c r="B32" s="1" t="n"/>
-      <c r="C32" s="1" t="n"/>
+      <c r="B32" s="1" t="inlineStr">
+        <is>
+          <t>awl-284</t>
+        </is>
+      </c>
+      <c r="C32" s="1" t="inlineStr">
+        <is>
+          <t>Navy</t>
+        </is>
+      </c>
       <c r="D32" s="1" t="inlineStr">
         <is>
-          <t>Size: 14</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E32" t="n">
@@ -1367,55 +1359,55 @@
     <row r="33">
       <c r="A33" s="1" t="n"/>
       <c r="B33" s="1" t="n"/>
-      <c r="C33" s="1" t="inlineStr">
-        <is>
-          <t>Taupe</t>
-        </is>
-      </c>
+      <c r="C33" s="1" t="n"/>
       <c r="D33" s="1" t="inlineStr">
         <is>
-          <t>Size: 14</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E33" t="n">
         <v>1</v>
       </c>
       <c r="F33" t="n">
-        <v>149</v>
+        <v>134</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>134</v>
       </c>
       <c r="I33" t="n">
-        <v>149</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n"/>
       <c r="B34" s="1" t="n"/>
-      <c r="C34" s="1" t="n"/>
+      <c r="C34" s="1" t="inlineStr">
+        <is>
+          <t>Tan</t>
+        </is>
+      </c>
       <c r="D34" s="1" t="inlineStr">
         <is>
-          <t>Size: 16</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E34" t="n">
         <v>1</v>
       </c>
       <c r="F34" t="n">
-        <v>149</v>
+        <v>134</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>134</v>
       </c>
       <c r="I34" t="n">
-        <v>149</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -1424,7 +1416,7 @@
       <c r="C35" s="1" t="n"/>
       <c r="D35" s="1" t="inlineStr">
         <is>
-          <t>Size: 8</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E35" t="n">
@@ -1434,62 +1426,62 @@
         <v>134</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>134</v>
       </c>
       <c r="I35" t="n">
-        <v>134</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n"/>
-      <c r="B36" s="1" t="inlineStr">
-        <is>
-          <t>awl-blazer</t>
-        </is>
-      </c>
+      <c r="B36" s="1" t="n"/>
       <c r="C36" s="1" t="inlineStr">
         <is>
-          <t>Black</t>
+          <t>Oxblood</t>
         </is>
       </c>
       <c r="D36" s="1" t="inlineStr">
         <is>
-          <t>Size: 14</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E36" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F36" t="n">
-        <v>139</v>
+        <v>283</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>283</v>
       </c>
       <c r="I36" t="n">
-        <v>139</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n"/>
       <c r="B37" s="1" t="n"/>
-      <c r="C37" s="1" t="n"/>
+      <c r="C37" s="1" t="inlineStr">
+        <is>
+          <t>Taupe</t>
+        </is>
+      </c>
       <c r="D37" s="1" t="inlineStr">
         <is>
-          <t>Size: 18</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E37" t="n">
         <v>1</v>
       </c>
       <c r="F37" t="n">
-        <v>125</v>
+        <v>149</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -1498,27 +1490,23 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>125</v>
+        <v>149</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n"/>
       <c r="B38" s="1" t="n"/>
-      <c r="C38" s="1" t="inlineStr">
-        <is>
-          <t>Tan</t>
-        </is>
-      </c>
+      <c r="C38" s="1" t="n"/>
       <c r="D38" s="1" t="inlineStr">
         <is>
-          <t>Size: 10</t>
+          <t>16</t>
         </is>
       </c>
       <c r="E38" t="n">
         <v>1</v>
       </c>
       <c r="F38" t="n">
-        <v>125</v>
+        <v>149</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -1527,7 +1515,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>125</v>
+        <v>149</v>
       </c>
     </row>
     <row r="39">
@@ -1536,23 +1524,23 @@
       <c r="C39" s="1" t="n"/>
       <c r="D39" s="1" t="inlineStr">
         <is>
-          <t>Size: 12</t>
+          <t>8</t>
         </is>
       </c>
       <c r="E39" t="n">
         <v>1</v>
       </c>
       <c r="F39" t="n">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="G39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>125</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>134</v>
       </c>
     </row>
     <row r="40">
@@ -1560,35 +1548,31 @@
       <c r="B40" s="1" t="n"/>
       <c r="C40" s="1" t="inlineStr">
         <is>
-          <t>Taupe</t>
-        </is>
-      </c>
-      <c r="D40" s="1" t="inlineStr">
-        <is>
-          <t>Size: 12</t>
-        </is>
-      </c>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="D40" s="1" t="inlineStr"/>
       <c r="E40" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="F40" t="n">
-        <v>139</v>
+        <v>1251</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>819</v>
       </c>
       <c r="I40" t="n">
-        <v>139</v>
+        <v>432</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n"/>
       <c r="B41" s="1" t="inlineStr">
         <is>
-          <t>awl-n30</t>
+          <t>awl-blazer</t>
         </is>
       </c>
       <c r="C41" s="1" t="inlineStr">
@@ -1598,14 +1582,14 @@
       </c>
       <c r="D41" s="1" t="inlineStr">
         <is>
-          <t>Size: 22</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E41" t="n">
         <v>1</v>
       </c>
       <c r="F41" t="n">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -1614,33 +1598,29 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>143</v>
+        <v>139</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n"/>
       <c r="B42" s="1" t="n"/>
-      <c r="C42" s="1" t="inlineStr">
-        <is>
-          <t>Tan</t>
-        </is>
-      </c>
+      <c r="C42" s="1" t="n"/>
       <c r="D42" s="1" t="inlineStr">
         <is>
-          <t>Size: 10</t>
+          <t>18</t>
         </is>
       </c>
       <c r="E42" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F42" t="n">
-        <v>250</v>
+        <v>125</v>
       </c>
       <c r="G42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>125</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>125</v>
@@ -1649,26 +1629,30 @@
     <row r="43">
       <c r="A43" s="1" t="n"/>
       <c r="B43" s="1" t="n"/>
-      <c r="C43" s="1" t="n"/>
+      <c r="C43" s="1" t="inlineStr">
+        <is>
+          <t>Tan</t>
+        </is>
+      </c>
       <c r="D43" s="1" t="inlineStr">
         <is>
-          <t>Size: 12</t>
+          <t>10</t>
         </is>
       </c>
       <c r="E43" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F43" t="n">
-        <v>264</v>
+        <v>125</v>
       </c>
       <c r="G43" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>264</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>125</v>
       </c>
     </row>
     <row r="44">
@@ -1677,32 +1661,36 @@
       <c r="C44" s="1" t="n"/>
       <c r="D44" s="1" t="inlineStr">
         <is>
-          <t>Size: 14</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E44" t="n">
         <v>1</v>
       </c>
       <c r="F44" t="n">
-        <v>139</v>
+        <v>125</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>125</v>
       </c>
       <c r="I44" t="n">
-        <v>139</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n"/>
       <c r="B45" s="1" t="n"/>
-      <c r="C45" s="1" t="n"/>
+      <c r="C45" s="1" t="inlineStr">
+        <is>
+          <t>Taupe</t>
+        </is>
+      </c>
       <c r="D45" s="1" t="inlineStr">
         <is>
-          <t>Size: 16</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E45" t="n">
@@ -1722,40 +1710,52 @@
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="1" t="inlineStr">
+      <c r="A46" s="1" t="n"/>
+      <c r="B46" s="1" t="n"/>
+      <c r="C46" s="1" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="B46" s="1" t="inlineStr"/>
-      <c r="C46" s="1" t="inlineStr"/>
       <c r="D46" s="1" t="inlineStr"/>
       <c r="E46" t="n">
-        <v>53</v>
+        <v>5</v>
       </c>
       <c r="F46" t="n">
-        <v>6991</v>
+        <v>653</v>
       </c>
       <c r="G46" t="n">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>4164</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>2827</v>
+        <v>653</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n"/>
-      <c r="B47" s="1" t="n"/>
-      <c r="C47" s="1" t="n"/>
-      <c r="D47" s="1" t="n"/>
+      <c r="B47" s="1" t="inlineStr">
+        <is>
+          <t>awl-n30</t>
+        </is>
+      </c>
+      <c r="C47" s="1" t="inlineStr">
+        <is>
+          <t>Black</t>
+        </is>
+      </c>
+      <c r="D47" s="1" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
       <c r="E47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F47" t="n">
-        <v>0</v>
+        <v>143</v>
       </c>
       <c r="G47" t="n">
         <v>0</v>
@@ -1764,36 +1764,650 @@
         <v>0</v>
       </c>
       <c r="I47" t="n">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n"/>
+      <c r="B48" s="1" t="n"/>
+      <c r="C48" s="1" t="inlineStr">
+        <is>
+          <t>Tan</t>
+        </is>
+      </c>
+      <c r="D48" s="1" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="E48" t="n">
+        <v>1</v>
+      </c>
+      <c r="F48" t="n">
+        <v>139</v>
+      </c>
+      <c r="G48" t="n">
+        <v>0</v>
+      </c>
+      <c r="H48" t="n">
+        <v>0</v>
+      </c>
+      <c r="I48" t="n">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n"/>
+      <c r="B49" s="1" t="n"/>
+      <c r="C49" s="1" t="n"/>
+      <c r="D49" s="1" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="E49" t="n">
+        <v>1</v>
+      </c>
+      <c r="F49" t="n">
+        <v>139</v>
+      </c>
+      <c r="G49" t="n">
+        <v>0</v>
+      </c>
+      <c r="H49" t="n">
+        <v>0</v>
+      </c>
+      <c r="I49" t="n">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n"/>
+      <c r="B50" s="1" t="n"/>
+      <c r="C50" s="1" t="n"/>
+      <c r="D50" s="1" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E50" t="n">
+        <v>2</v>
+      </c>
+      <c r="F50" t="n">
+        <v>250</v>
+      </c>
+      <c r="G50" t="n">
+        <v>1</v>
+      </c>
+      <c r="H50" t="n">
+        <v>125</v>
+      </c>
+      <c r="I50" t="n">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n"/>
+      <c r="B51" s="1" t="n"/>
+      <c r="C51" s="1" t="n"/>
+      <c r="D51" s="1" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="E51" t="n">
+        <v>2</v>
+      </c>
+      <c r="F51" t="n">
+        <v>264</v>
+      </c>
+      <c r="G51" t="n">
+        <v>2</v>
+      </c>
+      <c r="H51" t="n">
+        <v>264</v>
+      </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n"/>
+      <c r="B52" s="1" t="n"/>
+      <c r="C52" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="D52" s="1" t="inlineStr"/>
+      <c r="E52" t="n">
+        <v>7</v>
+      </c>
+      <c r="F52" t="n">
+        <v>935</v>
+      </c>
+      <c r="G52" t="n">
+        <v>3</v>
+      </c>
+      <c r="H52" t="n">
+        <v>389</v>
+      </c>
+      <c r="I52" t="n">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n"/>
+      <c r="B53" s="1" t="inlineStr">
+        <is>
+          <t>2810</t>
+        </is>
+      </c>
+      <c r="C53" s="1" t="inlineStr">
+        <is>
+          <t>Black</t>
+        </is>
+      </c>
+      <c r="D53" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="E53" t="n">
+        <v>0</v>
+      </c>
+      <c r="F53" t="n">
+        <v>414</v>
+      </c>
+      <c r="G53" t="n">
+        <v>0</v>
+      </c>
+      <c r="H53" t="n">
+        <v>0</v>
+      </c>
+      <c r="I53" t="n">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n"/>
+      <c r="B54" s="1" t="n"/>
+      <c r="C54" s="1" t="inlineStr">
+        <is>
+          <t>Coffee</t>
+        </is>
+      </c>
+      <c r="D54" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="E54" t="n">
+        <v>0</v>
+      </c>
+      <c r="F54" t="n">
+        <v>207</v>
+      </c>
+      <c r="G54" t="n">
+        <v>0</v>
+      </c>
+      <c r="H54" t="n">
+        <v>0</v>
+      </c>
+      <c r="I54" t="n">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n"/>
+      <c r="B55" s="1" t="inlineStr">
+        <is>
+          <t>AWL-281</t>
+        </is>
+      </c>
+      <c r="C55" s="1" t="inlineStr">
+        <is>
+          <t>Black</t>
+        </is>
+      </c>
+      <c r="D55" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="E55" t="n">
+        <v>0</v>
+      </c>
+      <c r="F55" t="n">
+        <v>305</v>
+      </c>
+      <c r="G55" t="n">
+        <v>0</v>
+      </c>
+      <c r="H55" t="n">
+        <v>0</v>
+      </c>
+      <c r="I55" t="n">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n"/>
+      <c r="B56" s="1" t="n"/>
+      <c r="C56" s="1" t="inlineStr">
+        <is>
+          <t>Navy</t>
+        </is>
+      </c>
+      <c r="D56" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="E56" t="n">
+        <v>0</v>
+      </c>
+      <c r="F56" t="n">
+        <v>533</v>
+      </c>
+      <c r="G56" t="n">
+        <v>0</v>
+      </c>
+      <c r="H56" t="n">
+        <v>0</v>
+      </c>
+      <c r="I56" t="n">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n"/>
+      <c r="B57" s="1" t="inlineStr">
+        <is>
+          <t>MB139</t>
+        </is>
+      </c>
+      <c r="C57" s="1" t="inlineStr">
+        <is>
+          <t>Black</t>
+        </is>
+      </c>
+      <c r="D57" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="E57" t="n">
+        <v>0</v>
+      </c>
+      <c r="F57" t="n">
+        <v>322</v>
+      </c>
+      <c r="G57" t="n">
+        <v>0</v>
+      </c>
+      <c r="H57" t="n">
+        <v>0</v>
+      </c>
+      <c r="I57" t="n">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n"/>
+      <c r="B58" s="1" t="n"/>
+      <c r="C58" s="1" t="inlineStr">
+        <is>
+          <t>Burgundy</t>
+        </is>
+      </c>
+      <c r="D58" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="E58" t="n">
+        <v>0</v>
+      </c>
+      <c r="F58" t="n">
+        <v>305</v>
+      </c>
+      <c r="G58" t="n">
+        <v>0</v>
+      </c>
+      <c r="H58" t="n">
+        <v>0</v>
+      </c>
+      <c r="I58" t="n">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n"/>
+      <c r="B59" s="1" t="n"/>
+      <c r="C59" s="1" t="inlineStr">
+        <is>
+          <t>Red</t>
+        </is>
+      </c>
+      <c r="D59" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="E59" t="n">
+        <v>0</v>
+      </c>
+      <c r="F59" t="n">
+        <v>662</v>
+      </c>
+      <c r="G59" t="n">
+        <v>0</v>
+      </c>
+      <c r="H59" t="n">
+        <v>0</v>
+      </c>
+      <c r="I59" t="n">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n"/>
+      <c r="B60" s="1" t="inlineStr">
+        <is>
+          <t>awl-1201</t>
+        </is>
+      </c>
+      <c r="C60" s="1" t="inlineStr">
+        <is>
+          <t>Blue</t>
+        </is>
+      </c>
+      <c r="D60" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="E60" t="n">
+        <v>0</v>
+      </c>
+      <c r="F60" t="n">
+        <v>602</v>
+      </c>
+      <c r="G60" t="n">
+        <v>0</v>
+      </c>
+      <c r="H60" t="n">
+        <v>0</v>
+      </c>
+      <c r="I60" t="n">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n"/>
+      <c r="B61" s="1" t="inlineStr">
+        <is>
+          <t>awl-284</t>
+        </is>
+      </c>
+      <c r="C61" s="1" t="inlineStr">
+        <is>
+          <t>Navy</t>
+        </is>
+      </c>
+      <c r="D61" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="E61" t="n">
+        <v>0</v>
+      </c>
+      <c r="F61" t="n">
+        <v>268</v>
+      </c>
+      <c r="G61" t="n">
+        <v>0</v>
+      </c>
+      <c r="H61" t="n">
+        <v>0</v>
+      </c>
+      <c r="I61" t="n">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="n"/>
+      <c r="B62" s="1" t="n"/>
+      <c r="C62" s="1" t="inlineStr">
+        <is>
+          <t>Tan</t>
+        </is>
+      </c>
+      <c r="D62" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="E62" t="n">
+        <v>0</v>
+      </c>
+      <c r="F62" t="n">
+        <v>268</v>
+      </c>
+      <c r="G62" t="n">
+        <v>0</v>
+      </c>
+      <c r="H62" t="n">
+        <v>0</v>
+      </c>
+      <c r="I62" t="n">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="n"/>
+      <c r="B63" s="1" t="n"/>
+      <c r="C63" s="1" t="inlineStr">
+        <is>
+          <t>Taupe</t>
+        </is>
+      </c>
+      <c r="D63" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="E63" t="n">
+        <v>0</v>
+      </c>
+      <c r="F63" t="n">
+        <v>432</v>
+      </c>
+      <c r="G63" t="n">
+        <v>0</v>
+      </c>
+      <c r="H63" t="n">
+        <v>0</v>
+      </c>
+      <c r="I63" t="n">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n"/>
+      <c r="B64" s="1" t="inlineStr">
+        <is>
+          <t>awl-blazer</t>
+        </is>
+      </c>
+      <c r="C64" s="1" t="inlineStr">
+        <is>
+          <t>Black</t>
+        </is>
+      </c>
+      <c r="D64" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="E64" t="n">
+        <v>0</v>
+      </c>
+      <c r="F64" t="n">
+        <v>264</v>
+      </c>
+      <c r="G64" t="n">
+        <v>0</v>
+      </c>
+      <c r="H64" t="n">
+        <v>0</v>
+      </c>
+      <c r="I64" t="n">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n"/>
+      <c r="B65" s="1" t="n"/>
+      <c r="C65" s="1" t="inlineStr">
+        <is>
+          <t>Tan</t>
+        </is>
+      </c>
+      <c r="D65" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="E65" t="n">
+        <v>0</v>
+      </c>
+      <c r="F65" t="n">
+        <v>250</v>
+      </c>
+      <c r="G65" t="n">
+        <v>0</v>
+      </c>
+      <c r="H65" t="n">
+        <v>0</v>
+      </c>
+      <c r="I65" t="n">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="n"/>
+      <c r="B66" s="1" t="inlineStr">
+        <is>
+          <t>awl-n30</t>
+        </is>
+      </c>
+      <c r="C66" s="1" t="inlineStr">
+        <is>
+          <t>Tan</t>
+        </is>
+      </c>
+      <c r="D66" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="E66" t="n">
+        <v>0</v>
+      </c>
+      <c r="F66" t="n">
+        <v>792</v>
+      </c>
+      <c r="G66" t="n">
+        <v>0</v>
+      </c>
+      <c r="H66" t="n">
+        <v>0</v>
+      </c>
+      <c r="I66" t="n">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B67" s="1" t="inlineStr"/>
+      <c r="C67" s="1" t="inlineStr"/>
+      <c r="D67" s="1" t="inlineStr"/>
+      <c r="E67" t="n">
+        <v>53</v>
+      </c>
+      <c r="F67" t="n">
+        <v>6991</v>
+      </c>
+      <c r="G67" t="n">
+        <v>32</v>
+      </c>
+      <c r="H67" t="n">
+        <v>4164</v>
+      </c>
+      <c r="I67" t="n">
+        <v>2827</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="n"/>
+      <c r="B68" s="1" t="n"/>
+      <c r="C68" s="1" t="n"/>
+      <c r="D68" s="1" t="n"/>
+      <c r="E68" t="n">
+        <v>0</v>
+      </c>
+      <c r="F68" t="n">
+        <v>0</v>
+      </c>
+      <c r="G68" t="n">
+        <v>0</v>
+      </c>
+      <c r="H68" t="n">
+        <v>0</v>
+      </c>
+      <c r="I68" t="n">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="26">
+  <mergeCells count="31">
+    <mergeCell ref="B26:B31"/>
+    <mergeCell ref="B17:B25"/>
+    <mergeCell ref="C12:C14"/>
+    <mergeCell ref="B8:B16"/>
+    <mergeCell ref="C20:C21"/>
     <mergeCell ref="C2:C4"/>
-    <mergeCell ref="C42:C45"/>
-    <mergeCell ref="C11:C13"/>
-    <mergeCell ref="B7:B14"/>
-    <mergeCell ref="B46:B47"/>
-    <mergeCell ref="D46:D47"/>
-    <mergeCell ref="A2:A45"/>
-    <mergeCell ref="A46:A47"/>
-    <mergeCell ref="C19:C21"/>
-    <mergeCell ref="C31:C32"/>
-    <mergeCell ref="B36:B40"/>
-    <mergeCell ref="C33:C35"/>
-    <mergeCell ref="C46:C47"/>
-    <mergeCell ref="C36:C37"/>
-    <mergeCell ref="B41:B45"/>
+    <mergeCell ref="B67:B68"/>
+    <mergeCell ref="B47:B52"/>
+    <mergeCell ref="C41:C42"/>
+    <mergeCell ref="B2:B7"/>
+    <mergeCell ref="C37:C39"/>
+    <mergeCell ref="C27:C30"/>
+    <mergeCell ref="B53:B54"/>
+    <mergeCell ref="C67:C68"/>
+    <mergeCell ref="C43:C44"/>
+    <mergeCell ref="C8:C9"/>
     <mergeCell ref="C17:C18"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="B28:B35"/>
-    <mergeCell ref="B2:B6"/>
-    <mergeCell ref="C38:C39"/>
-    <mergeCell ref="C28:C29"/>
-    <mergeCell ref="B15:B22"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="B23:B27"/>
-    <mergeCell ref="C24:C27"/>
+    <mergeCell ref="B64:B65"/>
+    <mergeCell ref="B55:B56"/>
+    <mergeCell ref="C32:C33"/>
+    <mergeCell ref="B32:B40"/>
+    <mergeCell ref="D67:D68"/>
+    <mergeCell ref="C48:C51"/>
+    <mergeCell ref="B61:B63"/>
+    <mergeCell ref="B57:B59"/>
+    <mergeCell ref="C34:C35"/>
+    <mergeCell ref="A2:A66"/>
+    <mergeCell ref="C22:C24"/>
+    <mergeCell ref="A67:A68"/>
+    <mergeCell ref="B41:B46"/>
     <mergeCell ref="C5:C6"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Debenhams - Feb 2024 - Leather Jackets.xlsx
+++ b/Debenhams - Feb 2024 - Leather Jackets.xlsx
@@ -446,7 +446,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I68"/>
+  <dimension ref="A1:I54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1897,56 +1897,40 @@
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="1" t="n"/>
-      <c r="B53" s="1" t="inlineStr">
-        <is>
-          <t>2810</t>
-        </is>
-      </c>
-      <c r="C53" s="1" t="inlineStr">
-        <is>
-          <t>Black</t>
-        </is>
-      </c>
-      <c r="D53" s="1" t="inlineStr">
+      <c r="A53" s="1" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
+      <c r="B53" s="1" t="inlineStr"/>
+      <c r="C53" s="1" t="inlineStr"/>
+      <c r="D53" s="1" t="inlineStr"/>
       <c r="E53" t="n">
-        <v>0</v>
+        <v>53</v>
       </c>
       <c r="F53" t="n">
-        <v>414</v>
+        <v>6991</v>
       </c>
       <c r="G53" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
+        <v>4164</v>
       </c>
       <c r="I53" t="n">
-        <v>414</v>
+        <v>2827</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n"/>
       <c r="B54" s="1" t="n"/>
-      <c r="C54" s="1" t="inlineStr">
-        <is>
-          <t>Coffee</t>
-        </is>
-      </c>
-      <c r="D54" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="C54" s="1" t="n"/>
+      <c r="D54" s="1" t="n"/>
       <c r="E54" t="n">
         <v>0</v>
       </c>
       <c r="F54" t="n">
-        <v>207</v>
+        <v>0</v>
       </c>
       <c r="G54" t="n">
         <v>0</v>
@@ -1955,458 +1939,35 @@
         <v>0</v>
       </c>
       <c r="I54" t="n">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="1" t="n"/>
-      <c r="B55" s="1" t="inlineStr">
-        <is>
-          <t>AWL-281</t>
-        </is>
-      </c>
-      <c r="C55" s="1" t="inlineStr">
-        <is>
-          <t>Black</t>
-        </is>
-      </c>
-      <c r="D55" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="E55" t="n">
-        <v>0</v>
-      </c>
-      <c r="F55" t="n">
-        <v>305</v>
-      </c>
-      <c r="G55" t="n">
-        <v>0</v>
-      </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
-      <c r="I55" t="n">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="1" t="n"/>
-      <c r="B56" s="1" t="n"/>
-      <c r="C56" s="1" t="inlineStr">
-        <is>
-          <t>Navy</t>
-        </is>
-      </c>
-      <c r="D56" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="E56" t="n">
-        <v>0</v>
-      </c>
-      <c r="F56" t="n">
-        <v>533</v>
-      </c>
-      <c r="G56" t="n">
-        <v>0</v>
-      </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" s="1" t="n"/>
-      <c r="B57" s="1" t="inlineStr">
-        <is>
-          <t>MB139</t>
-        </is>
-      </c>
-      <c r="C57" s="1" t="inlineStr">
-        <is>
-          <t>Black</t>
-        </is>
-      </c>
-      <c r="D57" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="E57" t="n">
-        <v>0</v>
-      </c>
-      <c r="F57" t="n">
-        <v>322</v>
-      </c>
-      <c r="G57" t="n">
-        <v>0</v>
-      </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
-      <c r="I57" t="n">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" s="1" t="n"/>
-      <c r="B58" s="1" t="n"/>
-      <c r="C58" s="1" t="inlineStr">
-        <is>
-          <t>Burgundy</t>
-        </is>
-      </c>
-      <c r="D58" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="E58" t="n">
-        <v>0</v>
-      </c>
-      <c r="F58" t="n">
-        <v>305</v>
-      </c>
-      <c r="G58" t="n">
-        <v>0</v>
-      </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" s="1" t="n"/>
-      <c r="B59" s="1" t="n"/>
-      <c r="C59" s="1" t="inlineStr">
-        <is>
-          <t>Red</t>
-        </is>
-      </c>
-      <c r="D59" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="E59" t="n">
-        <v>0</v>
-      </c>
-      <c r="F59" t="n">
-        <v>662</v>
-      </c>
-      <c r="G59" t="n">
-        <v>0</v>
-      </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
-      <c r="I59" t="n">
-        <v>662</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" s="1" t="n"/>
-      <c r="B60" s="1" t="inlineStr">
-        <is>
-          <t>awl-1201</t>
-        </is>
-      </c>
-      <c r="C60" s="1" t="inlineStr">
-        <is>
-          <t>Blue</t>
-        </is>
-      </c>
-      <c r="D60" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="E60" t="n">
-        <v>0</v>
-      </c>
-      <c r="F60" t="n">
-        <v>602</v>
-      </c>
-      <c r="G60" t="n">
-        <v>0</v>
-      </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
-      <c r="I60" t="n">
-        <v>602</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" s="1" t="n"/>
-      <c r="B61" s="1" t="inlineStr">
-        <is>
-          <t>awl-284</t>
-        </is>
-      </c>
-      <c r="C61" s="1" t="inlineStr">
-        <is>
-          <t>Navy</t>
-        </is>
-      </c>
-      <c r="D61" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="E61" t="n">
-        <v>0</v>
-      </c>
-      <c r="F61" t="n">
-        <v>268</v>
-      </c>
-      <c r="G61" t="n">
-        <v>0</v>
-      </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
-      <c r="I61" t="n">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" s="1" t="n"/>
-      <c r="B62" s="1" t="n"/>
-      <c r="C62" s="1" t="inlineStr">
-        <is>
-          <t>Tan</t>
-        </is>
-      </c>
-      <c r="D62" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="E62" t="n">
-        <v>0</v>
-      </c>
-      <c r="F62" t="n">
-        <v>268</v>
-      </c>
-      <c r="G62" t="n">
-        <v>0</v>
-      </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" s="1" t="n"/>
-      <c r="B63" s="1" t="n"/>
-      <c r="C63" s="1" t="inlineStr">
-        <is>
-          <t>Taupe</t>
-        </is>
-      </c>
-      <c r="D63" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="E63" t="n">
-        <v>0</v>
-      </c>
-      <c r="F63" t="n">
-        <v>432</v>
-      </c>
-      <c r="G63" t="n">
-        <v>0</v>
-      </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
-      <c r="I63" t="n">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" s="1" t="n"/>
-      <c r="B64" s="1" t="inlineStr">
-        <is>
-          <t>awl-blazer</t>
-        </is>
-      </c>
-      <c r="C64" s="1" t="inlineStr">
-        <is>
-          <t>Black</t>
-        </is>
-      </c>
-      <c r="D64" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="E64" t="n">
-        <v>0</v>
-      </c>
-      <c r="F64" t="n">
-        <v>264</v>
-      </c>
-      <c r="G64" t="n">
-        <v>0</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
-      <c r="I64" t="n">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" s="1" t="n"/>
-      <c r="B65" s="1" t="n"/>
-      <c r="C65" s="1" t="inlineStr">
-        <is>
-          <t>Tan</t>
-        </is>
-      </c>
-      <c r="D65" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="E65" t="n">
-        <v>0</v>
-      </c>
-      <c r="F65" t="n">
-        <v>250</v>
-      </c>
-      <c r="G65" t="n">
-        <v>0</v>
-      </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
-      <c r="I65" t="n">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" s="1" t="n"/>
-      <c r="B66" s="1" t="inlineStr">
-        <is>
-          <t>awl-n30</t>
-        </is>
-      </c>
-      <c r="C66" s="1" t="inlineStr">
-        <is>
-          <t>Tan</t>
-        </is>
-      </c>
-      <c r="D66" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="E66" t="n">
-        <v>0</v>
-      </c>
-      <c r="F66" t="n">
-        <v>792</v>
-      </c>
-      <c r="G66" t="n">
-        <v>0</v>
-      </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
-      <c r="I66" t="n">
-        <v>792</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B67" s="1" t="inlineStr"/>
-      <c r="C67" s="1" t="inlineStr"/>
-      <c r="D67" s="1" t="inlineStr"/>
-      <c r="E67" t="n">
-        <v>53</v>
-      </c>
-      <c r="F67" t="n">
-        <v>6991</v>
-      </c>
-      <c r="G67" t="n">
-        <v>32</v>
-      </c>
-      <c r="H67" t="n">
-        <v>4164</v>
-      </c>
-      <c r="I67" t="n">
-        <v>2827</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" s="1" t="n"/>
-      <c r="B68" s="1" t="n"/>
-      <c r="C68" s="1" t="n"/>
-      <c r="D68" s="1" t="n"/>
-      <c r="E68" t="n">
-        <v>0</v>
-      </c>
-      <c r="F68" t="n">
-        <v>0</v>
-      </c>
-      <c r="G68" t="n">
-        <v>0</v>
-      </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
-      <c r="I68" t="n">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="31">
+  <mergeCells count="26">
     <mergeCell ref="B26:B31"/>
     <mergeCell ref="B17:B25"/>
     <mergeCell ref="C12:C14"/>
     <mergeCell ref="B8:B16"/>
     <mergeCell ref="C20:C21"/>
     <mergeCell ref="C2:C4"/>
-    <mergeCell ref="B67:B68"/>
+    <mergeCell ref="A2:A52"/>
     <mergeCell ref="B47:B52"/>
     <mergeCell ref="C41:C42"/>
     <mergeCell ref="B2:B7"/>
     <mergeCell ref="C37:C39"/>
     <mergeCell ref="C27:C30"/>
     <mergeCell ref="B53:B54"/>
-    <mergeCell ref="C67:C68"/>
+    <mergeCell ref="D53:D54"/>
     <mergeCell ref="C43:C44"/>
     <mergeCell ref="C8:C9"/>
     <mergeCell ref="C17:C18"/>
-    <mergeCell ref="B64:B65"/>
-    <mergeCell ref="B55:B56"/>
     <mergeCell ref="C32:C33"/>
     <mergeCell ref="B32:B40"/>
-    <mergeCell ref="D67:D68"/>
+    <mergeCell ref="A53:A54"/>
     <mergeCell ref="C48:C51"/>
-    <mergeCell ref="B61:B63"/>
-    <mergeCell ref="B57:B59"/>
+    <mergeCell ref="C53:C54"/>
     <mergeCell ref="C34:C35"/>
-    <mergeCell ref="A2:A66"/>
     <mergeCell ref="C22:C24"/>
-    <mergeCell ref="A67:A68"/>
     <mergeCell ref="B41:B46"/>
     <mergeCell ref="C5:C6"/>
   </mergeCells>

--- a/Debenhams - Feb 2024 - Leather Jackets.xlsx
+++ b/Debenhams - Feb 2024 - Leather Jackets.xlsx
@@ -608,13 +608,13 @@
         <v>138</v>
       </c>
       <c r="G5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>69</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>69</v>
+        <v>138</v>
       </c>
     </row>
     <row r="6">
@@ -658,13 +658,13 @@
         <v>621</v>
       </c>
       <c r="G7" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H7" t="n">
-        <v>414</v>
+        <v>345</v>
       </c>
       <c r="I7" t="n">
-        <v>207</v>
+        <v>276</v>
       </c>
     </row>
     <row r="8">
@@ -803,13 +803,13 @@
         <v>169</v>
       </c>
       <c r="G12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
         <v>169</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -828,13 +828,13 @@
         <v>169</v>
       </c>
       <c r="G13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
         <v>169</v>
-      </c>
-      <c r="I13" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -907,13 +907,13 @@
         <v>1354</v>
       </c>
       <c r="G16" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H16" t="n">
-        <v>985</v>
+        <v>645</v>
       </c>
       <c r="I16" t="n">
-        <v>368</v>
+        <v>708</v>
       </c>
     </row>
     <row r="17">
@@ -1102,13 +1102,13 @@
         <v>152</v>
       </c>
       <c r="G23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
         <v>152</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -1152,13 +1152,13 @@
         <v>1444</v>
       </c>
       <c r="G25" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H25" t="n">
-        <v>815</v>
+        <v>662</v>
       </c>
       <c r="I25" t="n">
-        <v>628</v>
+        <v>781</v>
       </c>
     </row>
     <row r="26">
@@ -1372,13 +1372,13 @@
         <v>134</v>
       </c>
       <c r="G33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
+        <v>0</v>
+      </c>
+      <c r="I33" t="n">
         <v>134</v>
-      </c>
-      <c r="I33" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -1455,13 +1455,13 @@
         <v>283</v>
       </c>
       <c r="G36" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H36" t="n">
-        <v>283</v>
+        <v>149</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>134</v>
       </c>
     </row>
     <row r="37">
@@ -1559,13 +1559,13 @@
         <v>1251</v>
       </c>
       <c r="G40" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H40" t="n">
-        <v>819</v>
+        <v>551</v>
       </c>
       <c r="I40" t="n">
-        <v>432</v>
+        <v>700</v>
       </c>
     </row>
     <row r="41">
@@ -1862,13 +1862,13 @@
         <v>264</v>
       </c>
       <c r="G51" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H51" t="n">
-        <v>264</v>
+        <v>139</v>
       </c>
       <c r="I51" t="n">
-        <v>0</v>
+        <v>125</v>
       </c>
     </row>
     <row r="52">
@@ -1887,13 +1887,13 @@
         <v>935</v>
       </c>
       <c r="G52" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H52" t="n">
-        <v>389</v>
+        <v>264</v>
       </c>
       <c r="I52" t="n">
-        <v>546</v>
+        <v>671</v>
       </c>
     </row>
     <row r="53">
@@ -1912,13 +1912,13 @@
         <v>6991</v>
       </c>
       <c r="G53" t="n">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="H53" t="n">
-        <v>4164</v>
+        <v>3209</v>
       </c>
       <c r="I53" t="n">
-        <v>2827</v>
+        <v>3782</v>
       </c>
     </row>
     <row r="54">

--- a/Debenhams - Feb 2024 - Leather Jackets.xlsx
+++ b/Debenhams - Feb 2024 - Leather Jackets.xlsx
@@ -608,13 +608,13 @@
         <v>138</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>69</v>
       </c>
       <c r="I5" t="n">
-        <v>138</v>
+        <v>69</v>
       </c>
     </row>
     <row r="6">
@@ -658,13 +658,13 @@
         <v>621</v>
       </c>
       <c r="G7" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H7" t="n">
-        <v>345</v>
+        <v>414</v>
       </c>
       <c r="I7" t="n">
-        <v>276</v>
+        <v>207</v>
       </c>
     </row>
     <row r="8">
@@ -803,13 +803,13 @@
         <v>169</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>169</v>
       </c>
       <c r="I12" t="n">
-        <v>169</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -828,13 +828,13 @@
         <v>169</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>169</v>
       </c>
       <c r="I13" t="n">
-        <v>169</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -907,13 +907,13 @@
         <v>1354</v>
       </c>
       <c r="G16" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H16" t="n">
-        <v>645</v>
+        <v>985</v>
       </c>
       <c r="I16" t="n">
-        <v>708</v>
+        <v>368</v>
       </c>
     </row>
     <row r="17">
@@ -1102,13 +1102,13 @@
         <v>152</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>152</v>
       </c>
       <c r="I23" t="n">
-        <v>152</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -1152,13 +1152,13 @@
         <v>1444</v>
       </c>
       <c r="G25" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H25" t="n">
-        <v>662</v>
+        <v>815</v>
       </c>
       <c r="I25" t="n">
-        <v>781</v>
+        <v>628</v>
       </c>
     </row>
     <row r="26">
@@ -1372,13 +1372,13 @@
         <v>134</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>134</v>
       </c>
       <c r="I33" t="n">
-        <v>134</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -1455,13 +1455,13 @@
         <v>283</v>
       </c>
       <c r="G36" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H36" t="n">
-        <v>149</v>
+        <v>283</v>
       </c>
       <c r="I36" t="n">
-        <v>134</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -1559,13 +1559,13 @@
         <v>1251</v>
       </c>
       <c r="G40" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H40" t="n">
-        <v>551</v>
+        <v>819</v>
       </c>
       <c r="I40" t="n">
-        <v>700</v>
+        <v>432</v>
       </c>
     </row>
     <row r="41">
@@ -1862,13 +1862,13 @@
         <v>264</v>
       </c>
       <c r="G51" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H51" t="n">
-        <v>139</v>
+        <v>264</v>
       </c>
       <c r="I51" t="n">
-        <v>125</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52">
@@ -1887,13 +1887,13 @@
         <v>935</v>
       </c>
       <c r="G52" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H52" t="n">
-        <v>264</v>
+        <v>389</v>
       </c>
       <c r="I52" t="n">
-        <v>671</v>
+        <v>546</v>
       </c>
     </row>
     <row r="53">
@@ -1912,13 +1912,13 @@
         <v>6991</v>
       </c>
       <c r="G53" t="n">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="H53" t="n">
-        <v>3209</v>
+        <v>4164</v>
       </c>
       <c r="I53" t="n">
-        <v>3782</v>
+        <v>2827</v>
       </c>
     </row>
     <row r="54">
